--- a/Documents/Driver Carrier Shopping List 24.02.2025.xlsx
+++ b/Documents/Driver Carrier Shopping List 24.02.2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vovmo\Documents\Bäumlihof 3A\Maturaarbeit\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646039E0-FE4F-4605-9D99-2EB11E756410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8B0874-A188-4666-9785-0290B9B80DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Part</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>100uF 50V Capacitor</t>
-  </si>
-  <si>
-    <t>ESP32-S3-DEVKITC-1-N32R8V</t>
-  </si>
-  <si>
-    <t>ESP32 S3 DevKitC</t>
   </si>
   <si>
     <t>Terminal Block 1x02</t>
@@ -458,7 +452,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,11 +517,11 @@
       </c>
       <c r="H2">
         <f>SUM(F2:F25)</f>
-        <v>105.73</v>
+        <v>32.730000000000004</v>
       </c>
       <c r="I2">
         <f>H2*1.081</f>
-        <v>114.29413</v>
+        <v>35.381130000000006</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -541,14 +535,14 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>11.54</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F25" si="0">D3*E3</f>
-        <v>57.699999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -574,94 +568,94 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="3">
+        <v>1984617</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>15.3</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>15.3</v>
+        <f>D5*E5</f>
+        <v>1.6800000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1984617</v>
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>0.56000000000000005</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1.6800000000000002</v>
+        <f t="shared" ref="F6:F11" si="1">D6*E6</f>
+        <v>1.18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>5.8999999999999997E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1.18</v>
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>0.11</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="1"/>
+        <v>8.56</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>61300311121</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -670,53 +664,38 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>0.42799999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>8.56</v>
+        <f t="shared" si="1"/>
+        <v>1.8399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>61300311121</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>9.1999999999999998E-2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1.8399999999999999</v>
+        <f t="shared" si="1"/>
+        <v>6.7200000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>1.1200000000000001</v>
-      </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>6.7200000000000006</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -808,13 +787,12 @@
     <hyperlink ref="C2" r:id="rId1" display="www.digikey.ch" xr:uid="{DCB69177-7DE2-4518-8745-F12C9B0EEBC4}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{E295B861-E01B-4AC0-87DF-23339B761600}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{2F366F63-804C-4BAD-8E28-D4EB41805A54}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{62B8A1BB-8289-4D21-ACE3-0CF36B55E6C2}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{8B3F56DA-54E7-4B13-BDD7-FD1AEC103121}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{B6A9DD31-0896-4C3D-B1AE-C7B6860114B7}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{E92EEB16-5867-4002-A1B3-946972117BE4}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{54899D89-BD91-4FA9-9FD2-D1BB5215DBA9}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{61916ADA-88A9-4DA8-8FBA-4B153F5184FE}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{0BEA6359-3EE8-40D3-9F0E-C2A026EBB6F1}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{8B3F56DA-54E7-4B13-BDD7-FD1AEC103121}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{B6A9DD31-0896-4C3D-B1AE-C7B6860114B7}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{E92EEB16-5867-4002-A1B3-946972117BE4}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{54899D89-BD91-4FA9-9FD2-D1BB5215DBA9}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{61916ADA-88A9-4DA8-8FBA-4B153F5184FE}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{0BEA6359-3EE8-40D3-9F0E-C2A026EBB6F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
